--- a/output/inference_results/test_sheets/batch_005/test_sheet (49).xlsx
+++ b/output/inference_results/test_sheets/batch_005/test_sheet (49).xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>尿微量蛋白（U-ALB)</t>
+          <t>尿微量蛋白</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -466,13 +466,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mg/l</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0--20</t>
+          <t>0-20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>尿糖（GLU）</t>
+          <t>尿糖</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>阴性（-）</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>胆红素（BIL）</t>
+          <t>胆红素</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -520,7 +520,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>阴性（-）</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>尿萌体 （KET）</t>
+          <t>尿萌体</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -544,7 +544,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>阴性（-）-弱阳性（土）</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>尿蛋白（PRO）</t>
+          <t>尿蛋白</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -564,7 +564,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>阴性（-）</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>亚硝酸盐(NIT）</t>
+          <t>亚硝酸盐</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -588,7 +588,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>阴性（-）</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -600,7 +600,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>尿潜血（BLD）</t>
+          <t>潜血</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -608,7 +608,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>阴性（-）</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>尿白细胞（LEU）</t>
+          <t>尿白细胞</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>阴性（-）</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>尿胆原（URO）</t>
+          <t>尿胆原</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -664,7 +664,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0--2</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>尿PH（PH）</t>
+          <t>尿PH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>尿比重（SG）</t>
+          <t>尿比重</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,7 +712,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.005--1.030</t>
+          <t>1.005-1.030</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>红细胞（RBC）</t>
+          <t>红细胞</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>白细胞WBC</t>
+          <t>白细胞</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -763,14 +763,14 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0--28</t>
+          <t>0-28</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>管型（HYAL</t>
+          <t>细胞管型</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -786,7 +786,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0--3</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>上皮细胞 （SQEP）</t>
+          <t>上皮细胞</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -814,7 +814,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0--25</t>
+          <t>0-25</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -826,7 +826,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>结晶（UNCX）</t>
+          <t>其他结晶</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>粘液（MUCS）</t>
+          <t>粘液</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -870,7 +870,7 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0--5</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
